--- a/public/assets/documents/ImmoRose_Rapport_Activite_2025.xlsx
+++ b/public/assets/documents/ImmoRose_Rapport_Activite_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c6f3514f4638c89/Bureau/PROJETS/AURE/AurelienPortfolio/public/assets/temp/Immorose-MiroirMall/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_1BF32C3286849C34CF697F70D33D557AEE45C344" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E3564CC-B710-4D4D-B319-749855E9F7EC}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_1BF32C3286849C34CF697F70D33D557AEE45C344" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F76DEF4F-29B9-40C9-85B0-5CC67F1EBC56}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="504" windowWidth="23232" windowHeight="13992" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="504" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="🎯 DASHBOARD" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="679">
   <si>
     <t>🎯 Dashboard</t>
   </si>
   <si>
-    <t>🏢 ImmoRose</t>
+    <t>🏢 ImmoRosehttps://1drv.ms/x/c/9c6f3514f4638c89/IQAQzTjEfVnBSKPQt3kLrxfhAXJllgowTr5KznaHNEEGdDQ?e=26V0Mf</t>
   </si>
   <si>
     <t>🏬 MiroirMall</t>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>© 2025 ImmoRose SARL | Contact: sales@immorose.com | +243 895 269 216</t>
+  </si>
+  <si>
+    <t>🏢 ImmoRose</t>
   </si>
   <si>
     <t>🏢 IMMOROSE SARL</t>
@@ -2393,7 +2396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2432,6 +2435,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2838,8 +2844,8 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="3" topLeftCell="C4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2856,7 +2862,7 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2889,329 +2895,329 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="1:15" ht="3.6" customHeight="1"/>
     <row r="7" spans="1:15" ht="60.6" customHeight="1">
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="9" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17" t="s">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="17"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:15" ht="21.95" customHeight="1">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18" t="s">
+      <c r="G11" s="19"/>
+      <c r="H11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18" t="s">
+      <c r="I11" s="19"/>
+      <c r="J11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18" t="s">
+      <c r="K11" s="19"/>
+      <c r="L11" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="18"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="13" spans="1:15" ht="16.899999999999999">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
       <c r="H14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
       <c r="H15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
       <c r="H16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="21" t="s">
+      <c r="I17" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
     </row>
     <row r="18" spans="2:13" ht="28.9">
       <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
     </row>
     <row r="19" spans="2:13" ht="28.9">
       <c r="B19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
     </row>
     <row r="20" spans="2:13">
       <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
       <c r="H20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
     </row>
     <row r="23" spans="2:13" ht="16.899999999999999">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
     </row>
     <row r="24" spans="2:13" ht="28.9">
       <c r="B24" s="13" t="s">
@@ -3235,108 +3241,108 @@
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="22">
+      <c r="B25" s="23">
         <v>2025</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22" t="s">
+      <c r="E25" s="23"/>
+      <c r="F25" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22" t="s">
+      <c r="G25" s="23"/>
+      <c r="H25" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22" t="s">
+      <c r="I25" s="23"/>
+      <c r="J25" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="K25" s="22"/>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="22">
+      <c r="B26" s="23">
         <v>2026</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23" t="s">
+      <c r="C26" s="23"/>
+      <c r="D26" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24" t="s">
+      <c r="E26" s="24"/>
+      <c r="F26" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="25" t="s">
+      <c r="G26" s="25"/>
+      <c r="H26" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="22" t="s">
+      <c r="I26" s="26"/>
+      <c r="J26" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="K26" s="22"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="22">
+      <c r="B27" s="23">
         <v>2027</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24" t="s">
+      <c r="E27" s="24"/>
+      <c r="F27" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25" t="s">
+      <c r="G27" s="25"/>
+      <c r="H27" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="22" t="s">
+      <c r="I27" s="26"/>
+      <c r="J27" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="K27" s="22"/>
+      <c r="K27" s="23"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="22">
+      <c r="B28" s="23">
         <v>2028</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23" t="s">
+      <c r="C28" s="23"/>
+      <c r="D28" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24" t="s">
+      <c r="E28" s="24"/>
+      <c r="F28" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="25" t="s">
+      <c r="G28" s="25"/>
+      <c r="H28" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="I28" s="25"/>
-      <c r="J28" s="22" t="s">
+      <c r="I28" s="26"/>
+      <c r="J28" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="22"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="30" spans="2:13" ht="16.899999999999999">
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="28.9">
       <c r="B31" s="4" t="s">
@@ -3371,20 +3377,20 @@
       </c>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -3483,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -3515,456 +3521,456 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>609</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>611</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="19" t="s">
-        <v>611</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>612</v>
-      </c>
-      <c r="D8" s="28" t="s">
         <v>613</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="D8" s="29" t="s">
+        <v>614</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>615</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+        <v>115</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>616</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="D10" s="21" t="s">
         <v>617</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="D10" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="12" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="D11" s="20" t="s">
         <v>620</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="D11" s="21" t="s">
+        <v>621</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="11" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="D12" s="21" t="s">
         <v>623</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="D12" s="22" t="s">
+        <v>624</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="12" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="D13" s="20" t="s">
         <v>626</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="D13" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="15" spans="1:15" ht="16.899999999999999">
-      <c r="B15" s="19" t="s">
-        <v>627</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="B15" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>612</v>
-      </c>
-      <c r="D16" s="28" t="s">
         <v>613</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="D16" s="29" t="s">
+        <v>614</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="12" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="D17" s="20" t="s">
         <v>630</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="D17" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="11" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="D18" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="D18" s="22" t="s">
+        <v>634</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="12" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="D19" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="D19" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="D20" s="21" t="s">
         <v>637</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="D20" s="22" t="s">
+        <v>638</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="D21" s="20" t="s">
         <v>639</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="D21" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="11" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="D22" s="21" t="s">
         <v>642</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="D22" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="24" spans="2:8" ht="16.899999999999999">
-      <c r="B24" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="B24" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>612</v>
-      </c>
-      <c r="D25" s="28" t="s">
         <v>613</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
+      <c r="D25" s="29" t="s">
+        <v>614</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="12" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="D26" s="20" t="s">
         <v>646</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="D26" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="11" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="D27" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="D27" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="D28" s="20" t="s">
         <v>651</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="D28" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="30" spans="2:8" ht="16.899999999999999">
-      <c r="B30" s="19" t="s">
-        <v>652</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="B30" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>654</v>
-      </c>
-      <c r="D31" s="28" t="s">
         <v>655</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
+      <c r="D31" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="12" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="D32" s="24" t="s">
         <v>658</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
+      <c r="D32" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="11" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="D33" s="24" t="s">
         <v>661</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="D33" s="25" t="s">
+        <v>662</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="12" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>663</v>
-      </c>
-      <c r="D34" s="24" t="s">
         <v>664</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
+      <c r="D34" s="25" t="s">
+        <v>665</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="11" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="D35" s="24" t="s">
         <v>667</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="D35" s="25" t="s">
+        <v>668</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="12" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="D36" s="24" t="s">
         <v>670</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
+      <c r="D36" s="25" t="s">
+        <v>671</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="11" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="D37" s="24" t="s">
         <v>673</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
+      <c r="D37" s="25" t="s">
+        <v>674</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="12" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="D38" s="24" t="s">
         <v>676</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
+      <c r="D38" s="25" t="s">
+        <v>677</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
+      <c r="B41" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -4054,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -4086,436 +4092,436 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="21">
+        <v>93</v>
+      </c>
+      <c r="C9" s="22">
         <v>2019</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="C12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="C13" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="15" spans="1:15" ht="16.899999999999999">
-      <c r="B15" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="B15" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="C17" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="C19" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="C20" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="22" spans="2:8" ht="16.899999999999999">
-      <c r="B22" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
+      <c r="B22" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
+      <c r="C24" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="C26" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="C27" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C28" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="C28" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="30" spans="2:8" ht="16.899999999999999">
-      <c r="B30" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="B30" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="C31" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
+      <c r="C32" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="C33" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="35" spans="2:8" ht="16.899999999999999">
-      <c r="B35" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
+      <c r="B35" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28" t="s">
+      <c r="E36" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H36" s="28"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E37" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="F37" s="25"/>
-      <c r="G37" s="22">
+      <c r="E37" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="23">
         <v>2024</v>
       </c>
-      <c r="H37" s="22"/>
+      <c r="H37" s="23"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" s="24"/>
-      <c r="G38" s="22">
+        <v>128</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="23">
         <v>2025</v>
       </c>
-      <c r="H38" s="22"/>
+      <c r="H38" s="23"/>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E39" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="22">
+      <c r="E39" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F39" s="25"/>
+      <c r="G39" s="23">
         <v>2026</v>
       </c>
-      <c r="H39" s="22"/>
+      <c r="H39" s="23"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="22">
+        <v>128</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="23">
         <v>2024</v>
       </c>
-      <c r="H40" s="22"/>
+      <c r="H40" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -4594,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -4626,143 +4632,143 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+        <v>145</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+        <v>125</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="15" spans="1:15" ht="16.899999999999999">
-      <c r="B15" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
+      <c r="B15" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="E16" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="12" t="s">
@@ -4772,441 +4778,441 @@
         <v>20000</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="E17" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C18" s="5">
         <v>18000</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+        <v>153</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C19" s="5">
         <v>2.9</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="E19" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C20" s="5">
         <v>100</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="E20" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C21" s="5">
         <v>330</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="E21" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C22" s="5">
         <v>3</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="E22" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C23" s="5">
         <v>3</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="E23" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="25" spans="2:8" ht="16.899999999999999">
-      <c r="B25" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
+      <c r="B25" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="D26" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="D26" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="D27" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+        <v>177</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+        <v>177</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
+        <v>177</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+        <v>177</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
+        <v>177</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+        <v>177</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="35" spans="2:8" ht="16.899999999999999">
-      <c r="B35" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
+      <c r="B35" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="D36" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
+        <v>150</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D37" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
+      <c r="D37" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
+      <c r="D38" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
+      <c r="D39" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
+      <c r="D40" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D41" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
+      <c r="D41" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
+      <c r="D42" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D43" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
+      <c r="D43" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="45" spans="2:8" ht="16.899999999999999">
-      <c r="B45" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="B45" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C46" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
+        <v>215</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -5289,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -5321,802 +5327,802 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
+      <c r="F8" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C9" s="9">
         <v>70946</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E9" s="7">
         <v>2024</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="F9" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C10" s="9">
         <v>76157</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E10" s="7">
         <v>2025</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="F10" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C11" s="9">
         <v>70750</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E11" s="7">
         <v>2024</v>
       </c>
-      <c r="F11" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C12" s="9">
         <v>69700</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E12" s="7">
         <v>2025</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="F12" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="12" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C13" s="9">
         <v>5.7</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E13" s="7">
         <v>2024</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="F13" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C14" s="9">
         <v>7.9</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E14" s="7">
         <v>2024</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="F14" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C15" s="9">
         <v>6.5</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E15" s="7">
         <v>2024</v>
       </c>
-      <c r="F15" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="F15" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C16" s="9">
         <v>6.5</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E16" s="7">
         <v>2024</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="F16" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="12" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C17" s="9">
         <v>5.6</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E17" s="7">
         <v>2025</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="F17" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C18" s="9">
         <v>5.0999999999999996</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E18" s="7">
         <v>2025</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="F18" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C19" s="9">
         <v>5.3</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E19" s="7">
         <v>2025</v>
       </c>
-      <c r="F19" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="F19" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C20" s="9">
         <v>12.2</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E20" s="7">
         <v>2024</v>
       </c>
-      <c r="F20" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="F20" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="12" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C21" s="9">
         <v>8.1999999999999993</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E21" s="7">
         <v>2025</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="F21" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C22" s="9">
         <v>30</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E22" s="7">
         <v>2025</v>
       </c>
-      <c r="F22" s="21" t="s">
-        <v>243</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="F22" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="12" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C23" s="9">
         <v>130.69999999999999</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E23" s="7">
         <v>2024</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="F23" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C24" s="9">
         <v>71.5</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E24" s="7">
         <v>2024</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
+      <c r="F24" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C25" s="9">
         <v>8.3000000000000007</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E25" s="7">
         <v>2024</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="F25" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C26" s="9">
         <v>600000</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E26" s="7">
         <v>2024</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="F26" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C27" s="9">
         <v>12000000</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E27" s="7">
         <v>2024</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="F27" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C28" s="9">
         <v>100000000</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E28" s="7">
         <v>2024</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="F28" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C29" s="9">
         <v>13</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E29" s="7">
         <v>2024</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="F29" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C30" s="9">
         <v>90</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E30" s="7">
         <v>2024</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
+      <c r="F30" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C31" s="9">
         <v>15</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E31" s="7">
         <v>2024</v>
       </c>
-      <c r="F31" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="F31" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="33" spans="2:8" ht="16.899999999999999">
-      <c r="B33" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
+      <c r="B33" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
+      <c r="F34" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C35" s="5">
         <v>2934000</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E35" s="7">
         <v>2024</v>
       </c>
-      <c r="F35" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="F35" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C36" s="5">
         <v>3061000</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E36" s="7">
         <v>2025</v>
       </c>
-      <c r="F36" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
+      <c r="F36" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C37" s="5">
         <v>4.34</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E37" s="7">
         <v>2024</v>
       </c>
-      <c r="F37" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
+      <c r="F37" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C38" s="5">
         <v>4617000</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E38" s="7">
         <v>2024</v>
       </c>
-      <c r="F38" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
+      <c r="F38" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C39" s="5">
         <v>12000000</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E39" s="7">
         <v>2024</v>
       </c>
-      <c r="F39" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
+      <c r="F39" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C40" s="5">
         <v>2</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E40" s="7">
         <v>2024</v>
       </c>
-      <c r="F40" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
+      <c r="F40" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C41" s="5">
         <v>6</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E41" s="7">
         <v>1989</v>
       </c>
-      <c r="F41" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
+      <c r="F41" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C42" s="5">
         <v>20</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E42" s="7">
         <v>2014</v>
       </c>
-      <c r="F42" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
+      <c r="F42" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
     </row>
     <row r="43" spans="2:8">
       <c r="B43" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C43" s="5">
         <v>3.3</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E43" s="7">
         <v>2014</v>
       </c>
-      <c r="F43" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
+      <c r="F43" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E44" s="7">
         <v>2014</v>
       </c>
-      <c r="F44" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
+      <c r="F44" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
     </row>
     <row r="46" spans="2:8" ht="16.899999999999999">
-      <c r="B46" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
+      <c r="B46" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="C47" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
+      <c r="C47" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="C48" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
+      <c r="C48" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C49" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
+      <c r="C49" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C50" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
+      <c r="C50" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C51" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
+      <c r="C51" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C52" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
+      <c r="C52" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="46">
@@ -6204,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -6236,79 +6242,79 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C9" s="12">
         <v>3</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E9" s="12">
         <v>1600</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H9" s="12">
         <v>2024</v>
@@ -6316,22 +6322,22 @@
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C10" s="11">
         <v>4</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E10" s="11">
         <v>6000</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H10" s="11">
         <v>2024</v>
@@ -6339,22 +6345,22 @@
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C11" s="12">
         <v>4</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E11" s="12">
         <v>3500</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H11" s="12">
         <v>2024</v>
@@ -6362,22 +6368,22 @@
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C12" s="11">
         <v>4</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H12" s="11">
         <v>2022</v>
@@ -6385,10 +6391,10 @@
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D13" s="12">
         <v>300</v>
@@ -6397,10 +6403,10 @@
         <v>5000</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H13" s="12">
         <v>2024</v>
@@ -6408,22 +6414,22 @@
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C14" s="11">
         <v>3</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E14" s="11">
         <v>2200</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H14" s="11">
         <v>2024</v>
@@ -6431,7 +6437,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C15" s="12">
         <v>3</v>
@@ -6443,10 +6449,10 @@
         <v>2000</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H15" s="12">
         <v>2024</v>
@@ -6454,22 +6460,22 @@
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C16" s="11">
         <v>3</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H16" s="11">
         <v>2024</v>
@@ -6477,22 +6483,22 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C17" s="12">
         <v>2</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E17" s="12">
         <v>2500</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H17" s="12">
         <v>2024</v>
@@ -6500,22 +6506,22 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C18" s="11">
         <v>2</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E18" s="11">
         <v>5000</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H18" s="11">
         <v>2024</v>
@@ -6523,22 +6529,22 @@
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C19" s="12">
         <v>1</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E19" s="12">
         <v>1600</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H19" s="12">
         <v>2024</v>
@@ -6546,22 +6552,22 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C20" s="11">
         <v>3</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E20" s="11">
         <v>800</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="11">
         <v>2024</v>
@@ -6569,10 +6575,10 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D21" s="12">
         <v>145</v>
@@ -6581,10 +6587,10 @@
         <v>2500</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H21" s="12">
         <v>2024</v>
@@ -6592,10 +6598,10 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D22" s="11">
         <v>150</v>
@@ -6604,10 +6610,10 @@
         <v>2500</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H22" s="11">
         <v>2024</v>
@@ -6615,22 +6621,22 @@
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H23" s="12">
         <v>2022</v>
@@ -6638,10 +6644,10 @@
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D24" s="11">
         <v>150</v>
@@ -6650,10 +6656,10 @@
         <v>5300</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H24" s="11">
         <v>2024</v>
@@ -6661,22 +6667,22 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D25" s="12">
         <v>120</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H25" s="12">
         <v>2024</v>
@@ -6684,10 +6690,10 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D26" s="11">
         <v>1</v>
@@ -6696,90 +6702,90 @@
         <v>35.33</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H26" s="11">
         <v>2024</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="16.899999999999999">
-      <c r="B28" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
+      <c r="B28" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C29" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="C29" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="C30" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
+      <c r="C30" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C31" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="C31" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C32" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
+      <c r="C32" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C33" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="C33" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6832,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -6864,801 +6870,801 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C8" s="9">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E8" s="9">
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G8" s="9">
         <v>4</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I8" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.899999999999999">
-      <c r="B10" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="B10" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="H11" s="28"/>
+      <c r="G11" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="H12" s="22"/>
+        <v>135</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H13" s="25"/>
+        <v>128</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="G14" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="11" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H15" s="25"/>
+        <v>365</v>
+      </c>
+      <c r="G15" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="G16" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H16" s="25"/>
+        <v>368</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="G17" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="H17" s="24"/>
+      <c r="G17" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="H18" s="25"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>374</v>
-      </c>
       <c r="F19" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="H19" s="24"/>
+        <v>365</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="H19" s="25"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H20" s="25"/>
+        <v>380</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H21" s="25"/>
+        <v>365</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="12" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="H22" s="24"/>
+        <v>365</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="H22" s="25"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H23" s="25"/>
+        <v>365</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="H23" s="26"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="H24" s="22"/>
+        <v>365</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="H24" s="23"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="H25" s="24"/>
+        <v>365</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="H25" s="25"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="12" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="G26" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H26" s="25"/>
+        <v>368</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="H26" s="26"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="G27" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H27" s="25"/>
+        <v>398</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="F28" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="G28" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H28" s="25"/>
+      <c r="G28" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="H28" s="26"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="11" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="G29" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H29" s="25"/>
+        <v>398</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="H29" s="26"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="G30" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H30" s="25"/>
+        <v>398</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="H30" s="26"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="G31" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H31" s="25"/>
+        <v>398</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="H31" s="26"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="H32" s="24"/>
+        <v>398</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="H32" s="25"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="G33" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H33" s="25"/>
+        <v>368</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="H33" s="26"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="12" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H34" s="25"/>
+        <v>368</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="H34" s="26"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="H35" s="24"/>
+        <v>368</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="H36" s="24"/>
+        <v>368</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="G37" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H37" s="25"/>
+        <v>368</v>
+      </c>
+      <c r="G37" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="H37" s="26"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="G38" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="H38" s="25"/>
+        <v>368</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="H38" s="26"/>
     </row>
     <row r="39" spans="2:8">
       <c r="B39" s="11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="G39" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="H39" s="24"/>
+        <v>398</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="H39" s="25"/>
     </row>
     <row r="40" spans="2:8">
       <c r="B40" s="12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="G40" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="H40" s="24"/>
+        <v>368</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="H40" s="25"/>
     </row>
     <row r="41" spans="2:8">
       <c r="B41" s="11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="H41" s="24"/>
+        <v>435</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="H41" s="25"/>
     </row>
     <row r="43" spans="2:8" ht="16.899999999999999">
-      <c r="B43" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
+      <c r="B43" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="C44" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
+      <c r="C44" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C45" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
+      <c r="C45" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="C46" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
+      <c r="C46" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C47" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
+      <c r="C47" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C48" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
+      <c r="C48" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -7741,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -7773,414 +7779,414 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+        <v>123</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="C9" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C10" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="C10" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="C11" s="21" t="s">
         <v>454</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="C11" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="C12" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="C12" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C13" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="C13" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+        <v>96</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C15" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="C15" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
     </row>
     <row r="17" spans="2:8" ht="16.899999999999999">
-      <c r="B17" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="B17" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="23" t="s">
+      <c r="B18" s="26" t="s">
         <v>464</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="20" t="s">
-        <v>465</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20" t="s">
+      <c r="B19" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="20" t="s">
-        <v>467</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="20" t="s">
-        <v>469</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20" t="s">
+      <c r="B21" s="21" t="s">
         <v>470</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20" t="s">
+      <c r="B22" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="20" t="s">
-        <v>473</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="29" t="s">
+      <c r="B25" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20" t="s">
+      <c r="B26" s="21" t="s">
         <v>478</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20" t="s">
+      <c r="B27" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20" t="s">
+      <c r="B28" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20" t="s">
+      <c r="B29" s="21" t="s">
         <v>484</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="2:8">
-      <c r="B30" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20" t="s">
+      <c r="B30" s="21" t="s">
         <v>486</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
     </row>
     <row r="32" spans="2:8" ht="16.899999999999999">
-      <c r="B32" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="B32" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>29</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
+        <v>125</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="12" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="F34" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
+      <c r="F34" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="11" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="F35" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
+      <c r="F35" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="12" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="F36" s="20" t="s">
         <v>502</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
+      <c r="F36" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="11" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
+        <v>136</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -8264,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -8296,411 +8302,411 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>507</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="19" t="s">
-        <v>509</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="C8" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="C8" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="C9" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="C9" s="22" t="s">
+        <v>514</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="4" t="s">
-        <v>514</v>
-      </c>
-      <c r="C10" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="C10" s="21" t="s">
+        <v>516</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="C11" s="21" t="s">
         <v>517</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="C11" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+        <v>219</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>519</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
     </row>
     <row r="14" spans="1:15" ht="16.899999999999999">
-      <c r="B14" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="B14" s="20" t="s">
+        <v>520</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="13" t="s">
-        <v>520</v>
-      </c>
-      <c r="C15" s="28" t="s">
         <v>521</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28" t="s">
+      <c r="C15" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="C16" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="C17" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>528</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="C18" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="25" t="s">
+      <c r="C18" s="24" t="s">
         <v>531</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="C19" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>534</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="C20" s="23" t="s">
         <v>536</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="11" t="s">
-        <v>538</v>
-      </c>
-      <c r="C21" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="26" t="s">
+        <v>541</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="12" t="s">
-        <v>541</v>
-      </c>
-      <c r="C22" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="24" spans="2:8" ht="16.899999999999999">
-      <c r="B24" s="19" t="s">
-        <v>544</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
+      <c r="B24" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="C25" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="C25" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="C26" s="21" t="s">
         <v>548</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="C26" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="4" t="s">
-        <v>549</v>
-      </c>
-      <c r="C27" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="C27" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="C28" s="21" t="s">
         <v>552</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="C28" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="4" t="s">
-        <v>553</v>
-      </c>
-      <c r="C29" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="C29" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="C30" s="21" t="s">
         <v>556</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
+      <c r="C30" s="22" t="s">
+        <v>557</v>
+      </c>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="C31" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
+      <c r="C31" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
     </row>
     <row r="33" spans="2:8" ht="16.899999999999999">
-      <c r="B33" s="19" t="s">
-        <v>559</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
+      <c r="B33" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="C34" s="24" t="s">
         <v>561</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
+      <c r="C34" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="C35" s="24" t="s">
         <v>563</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="C35" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="C36" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
+      <c r="C36" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="C37" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
+      <c r="C37" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="C38" s="24" t="s">
         <v>569</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
+      <c r="C38" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -8781,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -8813,161 +8819,161 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="B4" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
     </row>
     <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="19" t="s">
-        <v>572</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>573</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:15" ht="28.9">
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.899999999999999">
-      <c r="B10" s="19" t="s">
-        <v>579</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="B10" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>580</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24" t="s">
+      <c r="C11" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="28" t="s">
+      <c r="F11" s="25"/>
+      <c r="G11" s="26" t="s">
         <v>583</v>
       </c>
-      <c r="J11" s="28"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="29" t="s">
+        <v>584</v>
+      </c>
+      <c r="J11" s="29"/>
       <c r="K11" s="13" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="7">
         <v>2025</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22" t="s">
+      <c r="H12" s="23"/>
+      <c r="I12" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="7">
         <v>2026</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25" t="s">
+      <c r="F13" s="25"/>
+      <c r="G13" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="22" t="s">
+      <c r="H13" s="26"/>
+      <c r="I13" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="22"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="7" t="s">
         <v>24</v>
       </c>
@@ -8976,22 +8982,22 @@
       <c r="B14" s="7">
         <v>2027</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25" t="s">
+      <c r="F14" s="25"/>
+      <c r="G14" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="22" t="s">
+      <c r="H14" s="26"/>
+      <c r="I14" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="22"/>
+      <c r="J14" s="23"/>
       <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
@@ -9000,205 +9006,205 @@
       <c r="B15" s="7">
         <v>2028</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25" t="s">
+      <c r="F15" s="25"/>
+      <c r="G15" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="22" t="s">
+      <c r="H15" s="26"/>
+      <c r="I15" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="22"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="16.899999999999999">
-      <c r="B17" s="19" t="s">
-        <v>587</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="B17" s="20" t="s">
+        <v>588</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="13" t="s">
-        <v>588</v>
-      </c>
-      <c r="C18" s="28" t="s">
         <v>589</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28" t="s">
+      <c r="C18" s="29" t="s">
         <v>590</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28" t="s">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29" t="s">
         <v>591</v>
       </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29" t="s">
+        <v>592</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="20" t="s">
-        <v>592</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="21" t="s">
+        <v>593</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="24" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="21" t="s">
-        <v>593</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="22" t="s">
+        <v>594</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>594</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="25" t="s">
+      <c r="C21" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="21" t="s">
+        <v>596</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="23" spans="2:11" ht="16.899999999999999">
-      <c r="B23" s="19" t="s">
-        <v>596</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
+      <c r="B23" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="C24" s="24" t="s">
         <v>598</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="20" t="s">
+      <c r="C24" s="25" t="s">
         <v>599</v>
       </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="4" t="s">
-        <v>600</v>
-      </c>
-      <c r="C25" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="21" t="s">
+      <c r="C25" s="25" t="s">
         <v>602</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="C26" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="20" t="s">
+      <c r="C26" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="C27" s="24" t="s">
         <v>607</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21" t="s">
+      <c r="C27" s="25" t="s">
         <v>608</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="22" t="s">
+        <v>609</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="46">

--- a/public/assets/documents/ImmoRose_Rapport_Activite_2025.xlsx
+++ b/public/assets/documents/ImmoRose_Rapport_Activite_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c6f3514f4638c89/Bureau/PROJETS/AURE/AurelienPortfolio/public/assets/temp/Immorose-MiroirMall/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_1BF32C3286849C34CF697F70D33D557AEE45C344" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F76DEF4F-29B9-40C9-85B0-5CC67F1EBC56}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="11_1BF32C3286849C34CF697F70D33D557AEE45C344" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D8D1FD3-6189-48A1-9271-07BD7629B273}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="504" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="504" windowWidth="23232" windowHeight="13992" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="🎯 DASHBOARD" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="678">
   <si>
     <t>🎯 Dashboard</t>
   </si>
   <si>
-    <t>🏢 ImmoRosehttps://1drv.ms/x/c/9c6f3514f4638c89/IQAQzTjEfVnBSKPQt3kLrxfhAXJllgowTr5KznaHNEEGdDQ?e=26V0Mf</t>
+    <t>🏢 ImmoRose</t>
   </si>
   <si>
     <t>🏬 MiroirMall</t>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>© 2025 ImmoRose SARL | Contact: sales@immorose.com | +243 895 269 216</t>
-  </si>
-  <si>
-    <t>🏢 ImmoRose</t>
   </si>
   <si>
     <t>🏢 IMMOROSE SARL</t>
@@ -2416,47 +2413,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2476,10 +2434,49 @@
     <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2843,9 +2840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="C4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:M5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2862,7 +2859,7 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -2895,159 +2892,159 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:15" ht="3.6" customHeight="1"/>
     <row r="7" spans="1:15" ht="60.6" customHeight="1">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="9" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18" t="s">
+      <c r="G9" s="27"/>
+      <c r="H9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18" t="s">
+      <c r="I9" s="27"/>
+      <c r="J9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18" t="s">
+      <c r="K9" s="27"/>
+      <c r="L9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="18"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:15" ht="21.95" customHeight="1">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19" t="s">
+      <c r="E11" s="28"/>
+      <c r="F11" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19" t="s">
+      <c r="G11" s="28"/>
+      <c r="H11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19" t="s">
+      <c r="I11" s="28"/>
+      <c r="J11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19" t="s">
+      <c r="K11" s="28"/>
+      <c r="L11" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="19"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="13" spans="1:15" ht="16.899999999999999">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="4" t="s">
@@ -3075,23 +3072,23 @@
       <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
       <c r="H16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="21" t="s">
+      <c r="I16" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="4" t="s">
@@ -3119,23 +3116,23 @@
       <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="21" t="s">
+      <c r="I18" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
     </row>
     <row r="19" spans="2:13" ht="28.9">
       <c r="B19" s="4" t="s">
@@ -3163,23 +3160,23 @@
       <c r="B20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="4" t="s">
@@ -3204,237 +3201,196 @@
       <c r="M21" s="22"/>
     </row>
     <row r="23" spans="2:13" ht="16.899999999999999">
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
     </row>
     <row r="24" spans="2:13" ht="28.9">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13" t="s">
+      <c r="E24" s="14"/>
+      <c r="F24" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13" t="s">
+      <c r="G24" s="14"/>
+      <c r="H24" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13" t="s">
+      <c r="I24" s="14"/>
+      <c r="J24" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="23">
+      <c r="B25" s="17">
         <v>2025</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23" t="s">
+      <c r="E25" s="17"/>
+      <c r="F25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23" t="s">
+      <c r="G25" s="17"/>
+      <c r="H25" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23" t="s">
+      <c r="I25" s="17"/>
+      <c r="J25" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K25" s="23"/>
+      <c r="K25" s="17"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="23">
+      <c r="B26" s="17">
         <v>2026</v>
       </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25" t="s">
+      <c r="E26" s="18"/>
+      <c r="F26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26" t="s">
+      <c r="G26" s="19"/>
+      <c r="H26" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="26"/>
-      <c r="J26" s="23" t="s">
+      <c r="I26" s="20"/>
+      <c r="J26" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="K26" s="23"/>
+      <c r="K26" s="17"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="23">
+      <c r="B27" s="17">
         <v>2027</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="G27" s="25"/>
-      <c r="H27" s="26" t="s">
+      <c r="G27" s="19"/>
+      <c r="H27" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I27" s="26"/>
-      <c r="J27" s="23" t="s">
+      <c r="I27" s="20"/>
+      <c r="J27" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="K27" s="23"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="23">
+      <c r="B28" s="17">
         <v>2028</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25" t="s">
+      <c r="E28" s="18"/>
+      <c r="F28" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26" t="s">
+      <c r="G28" s="19"/>
+      <c r="H28" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="23" t="s">
+      <c r="I28" s="20"/>
+      <c r="J28" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K28" s="23"/>
+      <c r="K28" s="17"/>
     </row>
     <row r="30" spans="2:13" ht="16.899999999999999">
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
     </row>
     <row r="31" spans="2:13" ht="28.9">
       <c r="B31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="12" t="s">
         <v>77</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="12" t="s">
         <v>79</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="12" t="s">
         <v>81</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="12" t="s">
         <v>83</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="52" spans="2:13">
-      <c r="B52" s="28" t="s">
+      <c r="B52" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="B30:M30"/>
-    <mergeCell ref="B52:M52"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B23:M23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="I18:M18"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="B5:M5"/>
     <mergeCell ref="B7:M7"/>
@@ -3450,6 +3406,47 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L9:M10"/>
     <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="I18:M18"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B30:M30"/>
+    <mergeCell ref="B52:M52"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" location="'🏢 ImmoRose'!A1" display="🏢 ImmoRose" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3489,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -3521,47 +3518,47 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.399999999999999">
+      <c r="B5" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.899999999999999">
+      <c r="B7" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="20" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="B8" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="29" t="s">
         <v>613</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>614</v>
       </c>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
@@ -3569,29 +3566,29 @@
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="23" t="s">
         <v>615</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="21" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="B10" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="22" t="s">
         <v>617</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>618</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -3599,29 +3596,29 @@
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="23" t="s">
         <v>620</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="D12" s="22" t="s">
         <v>623</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>624</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -3629,40 +3626,40 @@
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="23" t="s">
         <v>626</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.899999999999999">
+      <c r="B15" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="15" spans="1:15" ht="16.899999999999999">
-      <c r="B15" s="20" t="s">
-        <v>628</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="B16" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>613</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>614</v>
       </c>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
@@ -3670,29 +3667,29 @@
       <c r="H16" s="29"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="D17" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="11" t="s">
+      <c r="C18" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="22" t="s">
         <v>633</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>634</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -3700,29 +3697,29 @@
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="12" t="s">
-        <v>258</v>
+      <c r="B19" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>635</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="22" t="s">
         <v>637</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>638</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -3730,29 +3727,29 @@
       <c r="H20" s="22"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="12" t="s">
-        <v>260</v>
+      <c r="B21" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>639</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="22" t="s">
         <v>642</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>643</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -3760,25 +3757,25 @@
       <c r="H22" s="22"/>
     </row>
     <row r="24" spans="2:8" ht="16.899999999999999">
-      <c r="B24" s="20" t="s">
-        <v>644</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="B24" s="21" t="s">
+        <v>643</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>613</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>614</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
@@ -3786,29 +3783,29 @@
       <c r="H25" s="29"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="23" t="s">
         <v>646</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="11" t="s">
+      <c r="C27" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="22" t="s">
         <v>649</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>650</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
@@ -3816,40 +3813,40 @@
       <c r="H27" s="22"/>
     </row>
     <row r="28" spans="2:8">
-      <c r="B28" s="12" t="s">
-        <v>264</v>
+      <c r="B28" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="D28" s="23" t="s">
         <v>651</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="30" spans="2:8" ht="16.899999999999999">
+      <c r="B30" s="21" t="s">
         <v>652</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="30" spans="2:8" ht="16.899999999999999">
-      <c r="B30" s="20" t="s">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="13" t="s">
+      <c r="C31" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="D31" s="29" t="s">
         <v>655</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>656</v>
       </c>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
@@ -3857,123 +3854,148 @@
       <c r="H31" s="29"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="D32" s="19" t="s">
         <v>658</v>
       </c>
-      <c r="D32" s="25" t="s">
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="11" t="s">
+      <c r="C33" s="9" t="s">
         <v>660</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="D33" s="19" t="s">
         <v>661</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="12" t="s">
+      <c r="C34" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="D34" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="11" t="s">
+      <c r="C35" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="D35" s="19" t="s">
         <v>667</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="12" t="s">
+      <c r="C36" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="D36" s="19" t="s">
         <v>670</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="9" t="s">
         <v>672</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="D37" s="19" t="s">
         <v>673</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="D38" s="19" t="s">
         <v>676</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="16" t="s">
         <v>677</v>
       </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="28" t="s">
-        <v>678</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
     <mergeCell ref="D38:H38"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="D33:H33"/>
@@ -3981,31 +4003,6 @@
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="D36:H36"/>
     <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="'🎯 DASHBOARD'!A1" display="🎯 Dashboard" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
@@ -4042,7 +4039,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -4060,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -4092,54 +4089,54 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.399999999999999">
+      <c r="B5" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.899999999999999">
+      <c r="B7" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="22">
         <v>2019</v>
@@ -4154,14 +4151,14 @@
       <c r="B10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="4" t="s">
@@ -4178,23 +4175,23 @@
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>97</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -4203,35 +4200,35 @@
       <c r="H13" s="22"/>
     </row>
     <row r="15" spans="1:15" ht="16.899999999999999">
-      <c r="B15" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="B15" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>99</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>100</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
@@ -4241,23 +4238,23 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>102</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>103</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
@@ -4267,47 +4264,47 @@
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="22" spans="2:8" ht="16.899999999999999">
+      <c r="B22" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="22" spans="2:8" ht="16.899999999999999">
-      <c r="B22" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>108</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>109</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
@@ -4319,21 +4316,21 @@
       <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>111</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -4343,23 +4340,23 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>114</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>115</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -4368,35 +4365,35 @@
       <c r="H28" s="22"/>
     </row>
     <row r="30" spans="2:8" ht="16.899999999999999">
-      <c r="B30" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
+      <c r="B30" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -4406,40 +4403,40 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="35" spans="2:8" ht="16.899999999999999">
+      <c r="B35" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="35" spans="2:8" ht="16.899999999999999">
-      <c r="B35" s="20" t="s">
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="13" t="s">
+      <c r="C36" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="D36" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="29" t="s">
         <v>124</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>125</v>
       </c>
       <c r="F36" s="29"/>
       <c r="G36" s="29" t="s">
@@ -4448,120 +4445,120 @@
       <c r="H36" s="29"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="D37" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="E37" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E37" s="26" t="s">
+      <c r="F37" s="20"/>
+      <c r="G37" s="17">
+        <v>2024</v>
+      </c>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="23">
+      <c r="C38" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="19"/>
+      <c r="G38" s="17">
+        <v>2025</v>
+      </c>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="19"/>
+      <c r="G39" s="17">
+        <v>2026</v>
+      </c>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="19"/>
+      <c r="G40" s="17">
         <v>2024</v>
       </c>
-      <c r="H37" s="23"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" s="25"/>
-      <c r="G38" s="23">
-        <v>2025</v>
-      </c>
-      <c r="H38" s="23"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="F39" s="25"/>
-      <c r="G39" s="23">
-        <v>2026</v>
-      </c>
-      <c r="H39" s="23"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="F40" s="25"/>
-      <c r="G40" s="23">
-        <v>2024</v>
-      </c>
-      <c r="H40" s="23"/>
+      <c r="H40" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="G39:H39"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="G40:H40"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="'🎯 DASHBOARD'!A1" display="🎯 Dashboard" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -4583,7 +4580,7 @@
   <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="B4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4600,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
@@ -4632,57 +4629,57 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.399999999999999">
+      <c r="B5" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.899999999999999">
+      <c r="B7" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -4694,14 +4691,14 @@
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="4" t="s">
@@ -4718,20 +4715,20 @@
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+        <v>124</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>58</v>
@@ -4743,172 +4740,172 @@
       <c r="H13" s="22"/>
     </row>
     <row r="15" spans="1:15" ht="16.899999999999999">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="29" t="s">
         <v>151</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>152</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="5">
         <v>20000</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="9" t="s">
         <v>154</v>
-      </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="11" t="s">
-        <v>155</v>
       </c>
       <c r="C18" s="5">
         <v>18000</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>153</v>
+      <c r="D18" s="10" t="s">
+        <v>152</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="12" t="s">
-        <v>157</v>
+      <c r="B19" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="C19" s="5">
         <v>2.9</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="11" t="s">
-        <v>160</v>
       </c>
       <c r="C20" s="5">
         <v>100</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="22" t="s">
         <v>161</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>162</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="12" t="s">
-        <v>163</v>
+      <c r="B21" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="C21" s="5">
         <v>330</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="11" t="s">
-        <v>166</v>
       </c>
       <c r="C22" s="5">
         <v>3</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>167</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>168</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="12" t="s">
-        <v>169</v>
+      <c r="B23" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="C23" s="5">
         <v>3</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="25" spans="2:8" ht="16.899999999999999">
+      <c r="B25" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="25" spans="2:8" ht="16.899999999999999">
-      <c r="B25" s="20" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="13" t="s">
+      <c r="C26" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="29" t="s">
         <v>174</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>175</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
@@ -4916,29 +4913,29 @@
       <c r="H26" s="29"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="D27" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="11" t="s">
+      <c r="C28" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="22" t="s">
         <v>179</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>180</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -4946,29 +4943,29 @@
       <c r="H28" s="22"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D29" s="21" t="s">
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="11" t="s">
+      <c r="C30" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="22" t="s">
         <v>183</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>184</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -4976,29 +4973,29 @@
       <c r="H30" s="22"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="21" t="s">
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D32" s="22" t="s">
         <v>187</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>188</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -5006,40 +5003,40 @@
       <c r="H32" s="22"/>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D33" s="21" t="s">
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="35" spans="2:8" ht="16.899999999999999">
+      <c r="B35" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="35" spans="2:8" ht="16.899999999999999">
-      <c r="B35" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>150</v>
-      </c>
       <c r="D36" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
@@ -5047,29 +5044,29 @@
       <c r="H36" s="29"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="D38" s="22" t="s">
         <v>196</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>197</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -5077,29 +5074,29 @@
       <c r="H38" s="22"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="D39" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="D40" s="22" t="s">
         <v>202</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>203</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -5107,29 +5104,29 @@
       <c r="H40" s="22"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="D41" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="D42" s="22" t="s">
         <v>208</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>209</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -5137,43 +5134,43 @@
       <c r="H42" s="22"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="D43" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+    </row>
+    <row r="45" spans="2:8" ht="16.899999999999999">
+      <c r="B45" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="45" spans="2:8" ht="16.899999999999999">
-      <c r="B45" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C46" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="4" t="s">
@@ -5192,21 +5189,21 @@
       <c r="B48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -5216,47 +5213,47 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
     <mergeCell ref="C49:H49"/>
     <mergeCell ref="D43:H43"/>
     <mergeCell ref="B45:H45"/>
     <mergeCell ref="C46:H46"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="C48:H48"/>
-    <mergeCell ref="D38:H38"/>
-    <mergeCell ref="D39:H39"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="D42:H42"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D33:H33"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="D31:H31"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="'🎯 DASHBOARD'!A1" display="🎯 Dashboard" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -5278,7 +5275,7 @@
   <dimension ref="A2:O52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -5295,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -5327,744 +5324,744 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.399999999999999">
+      <c r="B5" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.899999999999999">
+      <c r="B7" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="20" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="29" t="s">
         <v>218</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="B8" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>219</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="12">
+        <v>70946</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="9">
-        <v>70946</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="10">
+        <v>2024</v>
+      </c>
+      <c r="F9" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="E9" s="7">
-        <v>2024</v>
-      </c>
-      <c r="F9" s="21" t="s">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="12">
+        <v>76157</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2025</v>
+      </c>
+      <c r="F10" s="22" t="s">
         <v>222</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="B10" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="9">
-        <v>76157</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2025</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>223</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="12">
+        <v>70750</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2024</v>
+      </c>
+      <c r="F11" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="9">
-        <v>70750</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2024</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="12">
+        <v>69700</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2025</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>224</v>
-      </c>
-      <c r="C12" s="9">
-        <v>69700</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E12" s="7">
-        <v>2025</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>225</v>
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="12">
+        <v>5.7</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C13" s="9">
-        <v>5.7</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="10">
+        <v>2024</v>
+      </c>
+      <c r="F13" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="E13" s="7">
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="12">
+        <v>7.9</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="10">
         <v>2024</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="B14" s="11" t="s">
+      <c r="F14" s="22" t="s">
         <v>229</v>
-      </c>
-      <c r="C14" s="9">
-        <v>7.9</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E14" s="7">
-        <v>2024</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>230</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="12">
+        <v>6.5</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15" s="10">
+        <v>2024</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="C15" s="9">
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="12">
         <v>6.5</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D16" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="10">
         <v>2024</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="B16" s="11" t="s">
+      <c r="F16" s="22" t="s">
         <v>233</v>
-      </c>
-      <c r="C16" s="9">
-        <v>6.5</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2024</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>234</v>
       </c>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="12">
+        <v>5.6</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2025</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C17" s="9">
-        <v>5.6</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" s="7">
+      <c r="C18" s="12">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="10">
         <v>2025</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="11" t="s">
+      <c r="F18" s="22" t="s">
         <v>236</v>
-      </c>
-      <c r="C18" s="9">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E18" s="7">
-        <v>2025</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>237</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="12">
+        <v>5.3</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2025</v>
+      </c>
+      <c r="F19" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="C19" s="9">
-        <v>5.3</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E19" s="7">
-        <v>2025</v>
-      </c>
-      <c r="F19" s="21" t="s">
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="12">
+        <v>12.2</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E20" s="10">
+        <v>2024</v>
+      </c>
+      <c r="F20" s="22" t="s">
         <v>240</v>
-      </c>
-      <c r="C20" s="9">
-        <v>12.2</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E20" s="7">
-        <v>2024</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>241</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="12">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="10">
+        <v>2025</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C21" s="9">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="C22" s="12">
+        <v>30</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" s="10">
         <v>2025</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="11" t="s">
+      <c r="F22" s="22" t="s">
         <v>243</v>
-      </c>
-      <c r="C22" s="9">
-        <v>30</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E22" s="7">
-        <v>2025</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>244</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="22"/>
     </row>
     <row r="23" spans="2:8">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="12">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2024</v>
+      </c>
+      <c r="F23" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="C23" s="9">
-        <v>130.69999999999999</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E23" s="7">
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="12">
+        <v>71.5</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" s="10">
         <v>2024</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C24" s="9">
-        <v>71.5</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E24" s="7">
-        <v>2024</v>
-      </c>
       <c r="F24" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="22"/>
     </row>
     <row r="25" spans="2:8">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="12">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="10">
+        <v>2024</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C25" s="9">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E25" s="7">
+      <c r="C26" s="12">
+        <v>600000</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" s="10">
         <v>2024</v>
       </c>
-      <c r="F25" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C26" s="9">
-        <v>600000</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="F26" s="22" t="s">
         <v>250</v>
-      </c>
-      <c r="E26" s="7">
-        <v>2024</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>251</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="22"/>
     </row>
     <row r="27" spans="2:8">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="12">
+        <v>12000000</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C27" s="9">
-        <v>12000000</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="10">
+        <v>2024</v>
+      </c>
+      <c r="F27" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="E27" s="7">
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="12">
+        <v>100000000</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E28" s="10">
         <v>2024</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="11" t="s">
+      <c r="F28" s="22" t="s">
         <v>255</v>
-      </c>
-      <c r="C28" s="9">
-        <v>100000000</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E28" s="7">
-        <v>2024</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>256</v>
       </c>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" s="12">
+        <v>13</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E29" s="10">
+        <v>2024</v>
+      </c>
+      <c r="F29" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="9">
-        <v>13</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E29" s="7">
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" s="12">
+        <v>90</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E30" s="10">
         <v>2024</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="11" t="s">
+      <c r="F30" s="22" t="s">
         <v>259</v>
-      </c>
-      <c r="C30" s="9">
-        <v>90</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E30" s="7">
-        <v>2024</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>260</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C31" s="12">
+        <v>15</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E31" s="10">
+        <v>2024</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="33" spans="2:8" ht="16.899999999999999">
+      <c r="B33" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="C31" s="9">
-        <v>15</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E31" s="7">
-        <v>2024</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="33" spans="2:8" ht="16.899999999999999">
-      <c r="B33" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="14" t="s">
         <v>60</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="12" t="s">
-        <v>263</v>
+      <c r="B35" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="C35" s="5">
         <v>2934000</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E35" s="7">
+      <c r="D35" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E35" s="10">
         <v>2024</v>
       </c>
-      <c r="F35" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
+      <c r="F35" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="11" t="s">
-        <v>263</v>
+      <c r="B36" s="9" t="s">
+        <v>262</v>
       </c>
       <c r="C36" s="5">
         <v>3061000</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E36" s="7">
+      <c r="D36" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E36" s="10">
         <v>2025</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="12" t="s">
-        <v>266</v>
+      <c r="B37" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="C37" s="5">
         <v>4.34</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37" s="10">
+        <v>2024</v>
+      </c>
+      <c r="F37" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="E37" s="7">
-        <v>2024</v>
-      </c>
-      <c r="F37" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="11" t="s">
-        <v>268</v>
       </c>
       <c r="C38" s="5">
         <v>4617000</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E38" s="7">
+      <c r="D38" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E38" s="10">
         <v>2024</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="12" t="s">
-        <v>252</v>
+      <c r="B39" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="C39" s="5">
         <v>12000000</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E39" s="10">
+        <v>2024</v>
+      </c>
+      <c r="F39" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="E39" s="7">
-        <v>2024</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="11" t="s">
-        <v>270</v>
+      <c r="B40" s="9" t="s">
+        <v>269</v>
       </c>
       <c r="C40" s="5">
         <v>2</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="E40" s="10">
+        <v>2024</v>
+      </c>
+      <c r="F40" s="22" t="s">
         <v>271</v>
-      </c>
-      <c r="E40" s="7">
-        <v>2024</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>272</v>
       </c>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="12" t="s">
-        <v>273</v>
+      <c r="B41" s="8" t="s">
+        <v>272</v>
       </c>
       <c r="C41" s="5">
         <v>6</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E41" s="7">
+      <c r="D41" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" s="10">
         <v>1989</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="11" t="s">
-        <v>275</v>
       </c>
       <c r="C42" s="5">
         <v>20</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E42" s="7">
+      <c r="D42" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E42" s="10">
         <v>2014</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="12" t="s">
-        <v>276</v>
+      <c r="B43" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="C43" s="5">
         <v>3.3</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E43" s="10">
+        <v>2014</v>
+      </c>
+      <c r="F43" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E43" s="7">
+      <c r="C44" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="E44" s="10">
         <v>2014</v>
       </c>
-      <c r="F43" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="D44" s="7" t="s">
+      <c r="F44" s="22" t="s">
         <v>280</v>
-      </c>
-      <c r="E44" s="7">
-        <v>2014</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>281</v>
       </c>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
     </row>
     <row r="46" spans="2:8" ht="16.899999999999999">
-      <c r="B46" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
+      <c r="B46" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="C47" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" s="22" t="s">
         <v>285</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>286</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -6074,23 +6071,23 @@
     </row>
     <row r="49" spans="2:8">
       <c r="B49" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C49" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="C49" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="22" t="s">
         <v>289</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>290</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -6100,23 +6097,23 @@
     </row>
     <row r="51" spans="2:8">
       <c r="B51" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C51" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C52" s="22" t="s">
         <v>293</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>294</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -6126,52 +6123,52 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="B46:H46"/>
     <mergeCell ref="C52:H52"/>
     <mergeCell ref="C47:H47"/>
     <mergeCell ref="C48:H48"/>
     <mergeCell ref="C49:H49"/>
     <mergeCell ref="C50:H50"/>
     <mergeCell ref="C51:H51"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="B46:H46"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="'🎯 DASHBOARD'!A1" display="🎯 Dashboard" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -6192,7 +6189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
@@ -6210,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -6242,505 +6239,505 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.399999999999999">
+      <c r="B5" s="25" t="s">
         <v>295</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.899999999999999">
+      <c r="B7" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="20" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="B8" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="14" t="s">
         <v>301</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C9" s="12">
-        <v>3</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="8">
+        <v>1600</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="E9" s="12">
-        <v>1600</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" s="12">
+      <c r="G9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="8">
         <v>2024</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C10" s="11">
-        <v>4</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>6000</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="F10" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="9">
         <v>2024</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C11" s="12">
-        <v>4</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="E11" s="8">
         <v>3500</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="F11" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="8">
         <v>2024</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C12" s="11">
-        <v>4</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="G12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" s="9">
         <v>2022</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="D13" s="8">
         <v>300</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="8">
         <v>5000</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="12">
+      <c r="F13" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" s="8">
         <v>2024</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="9">
+        <v>3</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2200</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C14" s="11">
-        <v>3</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="E14" s="11">
-        <v>2200</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="G14" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="9">
         <v>2024</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C15" s="12">
+        <v>311</v>
+      </c>
+      <c r="C15" s="8">
         <v>3</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="8">
         <v>150</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="8">
         <v>2000</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="12">
+      <c r="F15" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="8">
         <v>2024</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C16" s="11">
+        <v>311</v>
+      </c>
+      <c r="C16" s="9">
         <v>3</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H16" s="11">
+      <c r="G16" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" s="9">
         <v>2024</v>
       </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C17" s="12">
+        <v>311</v>
+      </c>
+      <c r="C17" s="8">
         <v>2</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="D17" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E17" s="8">
         <v>2500</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H17" s="12">
+      <c r="F17" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H17" s="8">
         <v>2024</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C18" s="11">
+        <v>311</v>
+      </c>
+      <c r="C18" s="9">
         <v>2</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="E18" s="11">
+      <c r="D18" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" s="9">
         <v>5000</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H18" s="11">
+      <c r="F18" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18" s="9">
         <v>2024</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C19" s="12">
+        <v>311</v>
+      </c>
+      <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="D19" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" s="8">
         <v>1600</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" s="12">
+      <c r="F19" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="8">
         <v>2024</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C20" s="11">
+        <v>311</v>
+      </c>
+      <c r="C20" s="9">
         <v>3</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="E20" s="11">
+      <c r="D20" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="9">
         <v>800</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="11">
+      <c r="F20" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="9">
         <v>2024</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D21" s="12">
+        <v>311</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D21" s="8">
         <v>145</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="8">
         <v>2500</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H21" s="12">
+      <c r="F21" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="8">
         <v>2024</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="D22" s="11">
+        <v>311</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D22" s="9">
         <v>150</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="9">
         <v>2500</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="11">
+      <c r="F22" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" s="9">
         <v>2024</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="D23" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H23" s="12">
+      <c r="G23" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" s="8">
         <v>2022</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D24" s="9">
+        <v>150</v>
+      </c>
+      <c r="E24" s="9">
+        <v>5300</v>
+      </c>
+      <c r="F24" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="D24" s="11">
-        <v>150</v>
-      </c>
-      <c r="E24" s="11">
-        <v>5300</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H24" s="11">
+      <c r="G24" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="9">
         <v>2024</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D25" s="8">
+        <v>120</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="D25" s="12">
-        <v>120</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="12">
+      <c r="G25" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H25" s="8">
         <v>2024</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
+        <v>35.33</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="H26" s="9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="16.899999999999999">
+      <c r="B28" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="D26" s="11">
-        <v>1</v>
-      </c>
-      <c r="E26" s="11">
-        <v>35.33</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" s="11">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="16.899999999999999">
-      <c r="B28" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>329</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>330</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>331</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -6750,23 +6747,23 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="C31" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>334</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>335</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -6776,16 +6773,16 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6838,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -6870,756 +6867,756 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.399999999999999">
+      <c r="B5" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.899999999999999">
+      <c r="B7" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" s="12">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C8" s="9">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="12">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="E8" s="9">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="12">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G8" s="9">
+      <c r="I8" s="12">
         <v>4</v>
       </c>
-      <c r="H8" s="4" t="s">
+    </row>
+    <row r="10" spans="1:15" ht="16.899999999999999">
+      <c r="B10" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="I8" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="16.899999999999999">
-      <c r="B10" s="20" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="29" t="s">
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="12" t="s">
+      <c r="C12" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="E12" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="D23" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="G24" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="H12" s="23"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="B13" s="11" t="s">
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="E25" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="E13" s="11" t="s">
+      <c r="D34" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G34" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H13" s="26"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="B14" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="H34" s="20"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H14" s="26"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="B15" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="C15" s="11" t="s">
+      <c r="D37" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="8" t="s">
+        <v>422</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="B16" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="D38" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="G38" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="H38" s="20"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G39" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="G17" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="H18" s="25"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="G19" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="11" t="s">
-        <v>385</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H23" s="26"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="11" t="s">
-        <v>390</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>391</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="G25" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="H25" s="25"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H26" s="26"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H27" s="26"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H30" s="26"/>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H31" s="26"/>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="H32" s="25"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H33" s="26"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>415</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H34" s="26"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="H36" s="25"/>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="G37" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H37" s="26"/>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>358</v>
-      </c>
-      <c r="H38" s="26"/>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="E39" s="11" t="s">
+      <c r="H39" s="19"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="F39" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="H39" s="25"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="12" t="s">
+      <c r="C40" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="D40" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="E40" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="F40" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="H40" s="19"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="H40" s="25"/>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="11" t="s">
+      <c r="C41" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="E41" s="11" t="s">
+      <c r="F41" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="F41" s="11" t="s">
+      <c r="G41" s="19" t="s">
+        <v>372</v>
+      </c>
+      <c r="H41" s="19"/>
+    </row>
+    <row r="43" spans="2:8" ht="16.899999999999999">
+      <c r="B43" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="G41" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="H41" s="25"/>
-    </row>
-    <row r="43" spans="2:8" ht="16.899999999999999">
-      <c r="B43" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
     </row>
     <row r="44" spans="2:8">
       <c r="B44" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C44" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="C44" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C45" s="22" t="s">
         <v>439</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>440</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
@@ -7629,23 +7626,23 @@
     </row>
     <row r="46" spans="2:8">
       <c r="B46" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>441</v>
       </c>
-      <c r="C46" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
     </row>
     <row r="47" spans="2:8">
       <c r="B47" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C47" s="22" t="s">
         <v>443</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>444</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
@@ -7655,60 +7652,60 @@
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C48" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="C48" s="21" t="s">
-        <v>446</v>
-      </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
     <mergeCell ref="C48:H48"/>
     <mergeCell ref="B43:H43"/>
     <mergeCell ref="C44:H44"/>
     <mergeCell ref="C45:H45"/>
     <mergeCell ref="C46:H46"/>
     <mergeCell ref="C47:H47"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="'🎯 DASHBOARD'!A1" display="🎯 Dashboard" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
@@ -7747,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -7779,57 +7776,57 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.399999999999999">
+      <c r="B5" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.899999999999999">
+      <c r="B7" s="21" t="s">
         <v>448</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+        <v>122</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -7839,23 +7836,23 @@
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>452</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>454</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>455</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -7865,23 +7862,23 @@
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>456</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>457</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>458</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>459</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="22"/>
@@ -7891,23 +7888,23 @@
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>460</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+        <v>95</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>461</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>462</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
@@ -7916,280 +7913,314 @@
       <c r="H15" s="22"/>
     </row>
     <row r="17" spans="2:8" ht="16.899999999999999">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="20" t="s">
         <v>463</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="26" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="24" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="23" t="s">
         <v>465</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="21" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21" t="s">
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="21" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21" t="s">
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="23" t="s">
         <v>469</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="21" t="s">
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23" t="s">
         <v>470</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21" t="s">
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="23" t="s">
         <v>471</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="21" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23" t="s">
         <v>472</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21" t="s">
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="23" t="s">
         <v>473</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="21" t="s">
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
         <v>474</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21" t="s">
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="25" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="30" t="s">
         <v>476</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="30" t="s">
-        <v>477</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
     </row>
     <row r="26" spans="2:8">
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23" t="s">
         <v>478</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21" t="s">
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="23" t="s">
         <v>479</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="21" t="s">
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23" t="s">
         <v>480</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21" t="s">
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="23" t="s">
         <v>481</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="21" t="s">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23" t="s">
         <v>482</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21" t="s">
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="23" t="s">
         <v>483</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="21" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21" t="s">
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="21" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23" t="s">
         <v>486</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21" t="s">
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+    </row>
+    <row r="32" spans="2:8" ht="16.899999999999999">
+      <c r="B32" s="21" t="s">
         <v>487</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-    </row>
-    <row r="32" spans="2:8" ht="16.899999999999999">
-      <c r="B32" s="20" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>488</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>489</v>
-      </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="13" t="s">
-        <v>125</v>
+      <c r="E33" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="E34" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="F34" s="23" t="s">
         <v>493</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="D35" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" s="11" t="s">
+      <c r="F35" s="22" t="s">
         <v>497</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>498</v>
       </c>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="D36" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="E36" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="F36" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="F36" s="21" t="s">
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="D37" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="E37" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="22" t="s">
         <v>506</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>507</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:H29"/>
     <mergeCell ref="F35:H35"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="F37:H37"/>
@@ -8198,40 +8229,6 @@
     <mergeCell ref="B32:H32"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="F34:H34"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="'🎯 DASHBOARD'!A1" display="🎯 Dashboard" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
@@ -8270,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -8302,57 +8299,57 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.399999999999999">
+      <c r="B5" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.899999999999999">
+      <c r="B7" s="21" t="s">
         <v>509</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C8" s="23" t="s">
         <v>511</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:15">
       <c r="B9" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>513</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>514</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
@@ -8362,23 +8359,23 @@
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C10" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>517</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>518</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="22"/>
@@ -8388,178 +8385,178 @@
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C12" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.899999999999999">
+      <c r="B14" s="21" t="s">
         <v>519</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="14" spans="1:15" ht="16.899999999999999">
-      <c r="B14" s="20" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="B15" s="13" t="s">
+      <c r="C15" s="29" t="s">
         <v>521</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>522</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="26" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="20" t="s">
         <v>528</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="26" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="18" t="s">
         <v>530</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="26" t="s">
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="11" t="s">
+      <c r="C19" s="18" t="s">
         <v>533</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="26" t="s">
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="18" t="s">
         <v>536</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="26" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="11" t="s">
+      <c r="C21" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="26" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="12" t="s">
+      <c r="C22" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="26" t="s">
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="24" spans="2:8" ht="16.899999999999999">
+      <c r="B24" s="21" t="s">
         <v>544</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-    </row>
-    <row r="24" spans="2:8" ht="16.899999999999999">
-      <c r="B24" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>547</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>548</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>549</v>
       </c>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -8569,23 +8566,23 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C27" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>551</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>552</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>553</v>
       </c>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -8595,23 +8592,23 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C29" s="23" t="s">
         <v>554</v>
       </c>
-      <c r="C29" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>556</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>557</v>
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -8621,134 +8618,134 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>558</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+    </row>
+    <row r="33" spans="2:8" ht="16.899999999999999">
+      <c r="B33" s="21" t="s">
         <v>559</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="33" spans="2:8" ht="16.899999999999999">
-      <c r="B33" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C34" s="19" t="s">
         <v>561</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>562</v>
-      </c>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>563</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>565</v>
       </c>
-      <c r="C36" s="25" t="s">
-        <v>566</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>567</v>
       </c>
-      <c r="C37" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" spans="2:8">
       <c r="B38" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>569</v>
       </c>
-      <c r="C38" s="25" t="s">
-        <v>570</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
     <mergeCell ref="C38:H38"/>
     <mergeCell ref="B33:H33"/>
     <mergeCell ref="C34:H34"/>
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="'🎯 DASHBOARD'!A1" display="🎯 Dashboard" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
@@ -8770,7 +8767,7 @@
   <dimension ref="A2:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -8787,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -8819,241 +8816,241 @@
       <c r="O2" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="39.950000000000003" customHeight="1">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="24" t="s">
+        <v>570</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.399999999999999">
+      <c r="B5" s="25" t="s">
         <v>571</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:15" ht="18.399999999999999">
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.899999999999999">
+      <c r="B7" s="21" t="s">
         <v>572</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.899999999999999">
-      <c r="B7" s="20" t="s">
-        <v>573</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:15" ht="28.9">
       <c r="B8" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>208</v>
+      <c r="G8" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="K8" s="9" t="s">
+    </row>
+    <row r="10" spans="1:15" ht="16.899999999999999">
+      <c r="B10" s="21" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="16.899999999999999">
-      <c r="B10" s="20" t="s">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="B11" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25" t="s">
+      <c r="F11" s="19"/>
+      <c r="G11" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26" t="s">
+      <c r="H11" s="20"/>
+      <c r="I11" s="29" t="s">
         <v>583</v>
       </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="29" t="s">
+      <c r="J11" s="29"/>
+      <c r="K11" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="13" t="s">
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="10">
+        <v>2025</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="10" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="7">
-        <v>2025</v>
-      </c>
-      <c r="C12" s="23" t="s">
+    <row r="13" spans="1:15">
+      <c r="B13" s="10">
+        <v>2026</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23" t="s">
+      <c r="F13" s="19"/>
+      <c r="G13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23" t="s">
+      <c r="H13" s="20"/>
+      <c r="I13" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="7" t="s">
+      <c r="J13" s="17"/>
+      <c r="K13" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="10">
+        <v>2027</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="K14" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="10">
+        <v>2028</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="10" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="B13" s="7">
-        <v>2026</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="26"/>
-      <c r="I13" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="B14" s="7">
-        <v>2027</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="B15" s="7">
-        <v>2028</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="7" t="s">
+    <row r="17" spans="2:11" ht="16.899999999999999">
+      <c r="B17" s="21" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" ht="16.899999999999999">
-      <c r="B17" s="20" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="13" t="s">
+      <c r="C18" s="29" t="s">
         <v>589</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>590</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="29" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
@@ -9061,39 +9058,39 @@
       <c r="K18" s="29"/>
     </row>
     <row r="19" spans="2:11">
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="21" t="s">
+      <c r="F19" s="18"/>
+      <c r="G19" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="19"/>
+      <c r="G20" s="22" t="s">
         <v>593</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="22" t="s">
-        <v>594</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="22"/>
@@ -9101,68 +9098,68 @@
       <c r="K20" s="22"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="17" t="s">
+        <v>594</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="23" t="s">
         <v>595</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="21" t="s">
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+    </row>
+    <row r="23" spans="2:11" ht="16.899999999999999">
+      <c r="B23" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="23" spans="2:11" ht="16.899999999999999">
-      <c r="B23" s="20" t="s">
-        <v>597</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>598</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="23" t="s">
         <v>599</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="22" t="s">
         <v>602</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="22" t="s">
-        <v>603</v>
       </c>
       <c r="G25" s="22"/>
       <c r="H25" s="22"/>
@@ -9172,33 +9169,33 @@
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>604</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="21" t="s">
-        <v>606</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>607</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="22" t="s">
         <v>608</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="22" t="s">
-        <v>609</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
@@ -9208,6 +9205,43 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:K21"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="F26:K26"/>
     <mergeCell ref="C27:E27"/>
@@ -9217,43 +9251,6 @@
     <mergeCell ref="F24:K24"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="F25:K25"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" location="'🎯 DASHBOARD'!A1" display="🎯 Dashboard" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
